--- a/Youth voter turnout.xlsx
+++ b/Youth voter turnout.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christineloughran/Desktop/data-chart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christineloughran/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D9B78D-5BDC-0949-BF46-74A80A6E2F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658B248-862B-7647-B130-449675CAEEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="17520" activeTab="1" xr2:uid="{1A2AFE8E-D8EC-B74D-B0EC-923932CEF6A1}"/>
+    <workbookView xWindow="3000" yWindow="760" windowWidth="27240" windowHeight="17520" activeTab="2" xr2:uid="{1A2AFE8E-D8EC-B74D-B0EC-923932CEF6A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Dem vs. Repub (original)" sheetId="5" r:id="rId1"/>
     <sheet name="Dem vs. Repub (copy)" sheetId="4" r:id="rId2"/>
-    <sheet name="College students - TUFTS" sheetId="1" r:id="rId3"/>
-    <sheet name="Young Adults (TUFTS)" sheetId="2" r:id="rId4"/>
+    <sheet name="Young Adults (TUFTS)" sheetId="2" r:id="rId3"/>
+    <sheet name="College students - TUFTS" sheetId="1" r:id="rId4"/>
     <sheet name="News sources" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>Year</t>
   </si>
@@ -93,15 +93,9 @@
     <t>https://docs.google.com/spreadsheets/d/1TjvcvrQD1JXt1waepKqT7wrRKAR73mB40aekx7wqsjg/edit#gid=183865492</t>
   </si>
   <si>
-    <t>democrat</t>
-  </si>
-  <si>
     <t>Republican</t>
   </si>
   <si>
-    <t xml:space="preserve">Percent increase: </t>
-  </si>
-  <si>
     <t>Democrat</t>
   </si>
   <si>
@@ -109,6 +103,9 @@
   </si>
   <si>
     <t>X.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Youth Voter Turnout in Recent Midterm Elections </t>
   </si>
 </sst>
 </file>
@@ -507,13 +504,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -701,7 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BE29D2-7AE3-DB49-8BFC-45CB08B7433C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -712,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -802,6 +799,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34421CCC-8867-A140-90ED-2238073A3E92}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2022</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C05741F-BF3A-DC48-8E50-9875CAF3D2E8}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -888,75 +948,6 @@
       </c>
       <c r="D5" s="1">
         <v>0.8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34421CCC-8867-A140-90ED-2238073A3E92}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2010</v>
-      </c>
-      <c r="B2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2014</v>
-      </c>
-      <c r="B3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2022</v>
-      </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1008,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
